--- a/lit/reading_list.xlsx
+++ b/lit/reading_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\lit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9109F194-E340-4A86-84C4-2553599A08C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0B5303-9BAE-492C-B184-C822DA534ADE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{FAF275AB-D4AD-4F50-96C0-D7F748AA45A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>title</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>bibtex</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1d48CskI7vCUOdw6Aq8awX895bW8jYMHO</t>
   </si>
   <si>
     <t>author(s)</t>
@@ -148,12 +145,124 @@
   <si>
     <t>https://voxclamantisproject.github.io/data.html</t>
   </si>
+  <si>
+    <t>This is the corpus that was produced any presented by salesky2020corpus (see first entry)</t>
+  </si>
+  <si>
+    <t>WordKit: a Python Package for Orthographic and Phonological Featurization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @inproceedings{tulkens-etal-2018-wordkit,
+    title = "{W}ord{K}it: a Python Package for Orthographic and Phonological Featurization",
+    author = "Tulkens, St{\'e}phan  and
+      Sandra, Dominiek  and
+      Daelemans, Walter",
+    booktitle = "Proceedings of the Eleventh International Conference on Language Resources and Evaluation ({LREC} 2018)",
+    month = may,
+    year = "2018",
+    address = "Miyazaki, Japan",
+    publisher = "European Language Resources Association (ELRA)",
+    url = "https://aclanthology.org/L18-1427",
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tulkens, St{\'e}phan  and
+      Sandra, Dominiek  and
+      Daelemans, Walter</t>
+  </si>
+  <si>
+    <t>The modeling of psycholinguistic phenomena, such as word reading, with machine learning techniques requires the featurization of word stimuli into appropriate orthographic and phonological representations. Critically, the choice of features impacts the performance of machine learning algorithms, and can have important ramifications for the conclusions drawn from a model. As such, featurizing words with a variety of feature sets, without having to resort to using different tools is beneficial in terms of development cost. In this work, we
+present wordkit, a python package which allows users to switch between feature sets and featurizers with a uniform API, allowing for rapid prototyping. To the best of our knowledge, this is the first package which integrates a variety of orthographic and phonological featurizers in a single package. The package is fully compatible with scikit-learn, and hence can be integrated into a variety of machine learning pipelines. Furthermore, the package is modular and extensible, allowing for the future integration of a large variety of
+feature sets and featurizers. The package and documentation can be found at github.com/stephantul/wordkit</t>
+  </si>
+  <si>
+    <t>Grapheme-to-Phoneme Models for (Almost) Any Language</t>
+  </si>
+  <si>
+    <t>Aliya Deri and Kevin Knight</t>
+  </si>
+  <si>
+    <t>Grapheme-to-phoneme (g2p) models are rarely available in low-resource languages, as the creation of training and evaluation data is expensive and time-consuming. We use Wiktionary to obtain more than 650k word-pronunciation pairs in more than 500 languages. We then develop phoneme and language distance metrics based on phonological and linguistic knowledge; applying those, we adapt g2p models for highresource languages to create models for related low-resource languages. We provide results for models for 229 adapted languages.</t>
+  </si>
+  <si>
+    <t>@inproceedings{Deri2016GraphemetoPhonemeMF, title={Grapheme-to-Phoneme Models for (Almost) Any Language}, author={Aliya Deri and Kevin Knight}, booktitle={ACL}, year={2016} }</t>
+  </si>
+  <si>
+    <t>many more papers collected by Steven and Tanja</t>
+  </si>
+  <si>
+    <t>very short word list of various different languges, not quite sure what to do about it</t>
+  </si>
+  <si>
+    <t>The past decades have seen substantial growth in digital data on the world's languages. At the same time, the demand for cross-linguistic datasets has been increasing, as witnessed by numerous studies devoted to diverse questions on human prehistory, cultural evolution, and human cognition. Unfortunately, the majority of published datasets lack standardization which makes their comparison difficult. Here, we present the first step to increase the comparability of cross-linguistic lexical data. We have designed workflows for the computer-assisted lifting of datasets to Cross-Linguistic Data Formats, a collection of standards that increase the FAIRness of linguistic data. We test the Lexibank workflow on a collection of 100 lexical datasets from which we derive an aggregated database of wordlists in unified phonetic transcriptions covering more than 2000 language varieties. We illustrate the benefits of our approach by showing how phonological and lexical features can be automatically inferred, complementing and expanding existing cross-linguistic datasets.</t>
+  </si>
+  <si>
+    <t>Johann-Mattis List, Robert Forkel, Simon J. Greenhill, Christoph Rzymski, Johannes Englisch, Russell D. Gray</t>
+  </si>
+  <si>
+    <t>Lexibank: A public repository of standardized wordlists with computed phonological and lexical features</t>
+  </si>
+  <si>
+    <t>LanguageNet Grapheme-to-Phoneme Transducers</t>
+  </si>
+  <si>
+    <t>Grapheme to phoneme exploration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exploring the 100LC corpus. Includes writing system coverage and phoible covergae. </t>
+  </si>
+  <si>
+    <t>Generate initial orthography profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creating orthography profiles for the 100LC corpus. </t>
+  </si>
+  <si>
+    <t>Language documentation faces a persistent and pervasive problem: How much material is enough to represent a language fully? How much text would we need to sample the full phoneme inventory of a language? In the phonetic/phonemic domain, what proportion of the phoneme inventory can we expect to sample in a text of a given length? Answering these questions in a quantifiable way is tricky, but asking them is necessary. The cumulative collection of Illustrative Texts published in the Illustration series in this journal over more than four decades (mostly renditions of the ‘North Wind and the Sun’) gives us an ideal dataset for pursuing these questions. Here we investigate a tractable subset of the above questions, namely: What proportion of a language’s phoneme inventory do these texts enable us to recover, in the minimal sense of having at least one allophone of each phoneme? We find that, even with this low bar, only three languages (Modern Greek, Shipibo and the Treger dialect of Breton) attest all phonemes in these texts. Unsurprisingly, these languages sit at the low end of phoneme inventory sizes (respectively 23, 24 and 36 phonemes). We then estimate the rate at which phonemes are sampled in the Illustrative Texts and extrapolate to see how much text it might take to display a language’s full inventory. Finally, we discuss the implications of these findings for linguistics in its quest to represent the world’s phonetic diversity, and for JIPA in its design requirements for Illustrations and in particular whether supplementary panphonic texts should be included.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Louise Baird, Nicholas Evans  and Simon J. Greenhill</t>
+  </si>
+  <si>
+    <t>Blowing in the wind: Using ‘North Wind and the Sun’ texts to sample phoneme inventories</t>
+  </si>
+  <si>
+    <t>@article{baird_evans_greenhill_2021, title={Blowing in the wind: Using ‘North Wind and the Sun’ texts to sample phoneme inventories}, DOI={10.1017/S002510032000033X}, journal={Journal of the International Phonetic Association}, publisher={Cambridge University Press}, author={Baird, Louise and Evans, Nicholas and Greenhill, Simon J.}, year={2021}, pages={1–42}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This text is a practical guide for linguists, and programmers, who work with data in multilingual computational environments. We introduce the basic concepts needed to understand how writing systems and character encodings function, and how they work together at the intersection between the Unicode Standard and the International Phonetic Alphabet. Although these standards are often met with frustration by users, they nevertheless provide language researchers and programmers with a consistent computational architecture needed to process, publish and analyze lexical data from the world's languages. Thus we bring to light common, but not always transparent, pitfalls which researchers face when working with Unicode and IPA. Having identified and overcome these pitfalls involved in making writing systems and character encodings syntactically and semantically interoperable (to the extent that they can be), we created a suite of open-source Python and R tools to work with languages using orthography profiles that describe author- or document-specific orthographic conventions. In this cookbook we describe a formal specification of orthography profiles and provide recipes using open source tools to show how users can segment text, analyze it, identify errors, and to transform it into different written forms for comparative linguistics research.
+This book is a prime example of open publishing as envisioned by Language Science Press. It is open access, has accompanying open source software, has open peer review, versioning and so on. Read more in this blog post.
+The book is continuously being improved. You can follow the development on https://github.com/unicode-cookbook/cookbook/releases/latest</t>
+  </si>
+  <si>
+    <t>Steven Moran, Dr.   Michael Cysouw, Prof. Dr. </t>
+  </si>
+  <si>
+    <t>The Unicode cookbook for linguists: Managing writing systems using orthography profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @book{unicode-lingu,
+author = {Moran, Steven and Cysouw, Michael},
+year = {2018},
+month = {06},
+pages = {},
+title = {The Unicode Cookbook for Linguists: Managing writing systems using orthography profiles},
+isbn = {978-3-96110-090-3},
+doi = {10.5281/zenodo.1296780}
+}</t>
+  </si>
+  <si>
+    <t>master thesis to look at, WER</t>
+  </si>
+  <si>
+    <t>G2P for quite many languages</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +274,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -201,6 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A94189-D696-4502-A404-7F70B0E07ED0}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -528,7 +646,7 @@
     <col min="2" max="2" width="17.53125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="89.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -536,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -548,134 +666,258 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="185.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="270.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="3" t="s">
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C14" s="3" t="s">
-        <v>16</v>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C16" s="2" t="s">
-        <v>18</v>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{9BB0A5C6-C889-48F5-9270-98B86BAD6C89}"/>
+  <autoFilter ref="A1:H1" xr:uid="{9BB0A5C6-C889-48F5-9270-98B86BAD6C89}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
+      <sortCondition ref="F1"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" tooltip="https://arxiv.org/abs/1902.00972" xr:uid="{48AFD4B9-7A23-40F7-A09B-47536852E227}"/>
-    <hyperlink ref="C5" r:id="rId2" tooltip="https://drive.google.com/drive/folders/1d48CskI7vCUOdw6Aq8awX895bW8jYMHO" xr:uid="{D1E90F09-D446-4A19-BAC3-F324D72303B7}"/>
-    <hyperlink ref="C8" r:id="rId3" tooltip="https://www.dropbox.com/sh/0opunb97kju9m2u/AACJXy9CsBo_GOB_14L79UUEa?dl=0" xr:uid="{25A71AD2-6088-4822-843B-06B087BDE44E}"/>
-    <hyperlink ref="C9" r:id="rId4" tooltip="https://asjp.clld.org/languages" xr:uid="{545550D9-62F2-41B0-A3F3-A2F1B9F19628}"/>
-    <hyperlink ref="C10" r:id="rId5" tooltip="https://www.researchsquare.com/article/rs-870835/v1" xr:uid="{3E67989B-C35B-4AB9-8B31-2E60C1AB4C1A}"/>
-    <hyperlink ref="C11" r:id="rId6" tooltip="https://github.com/uiuc-sst/g2ps" xr:uid="{E27F8DED-6BE6-4273-A65B-787F1EA868B8}"/>
-    <hyperlink ref="C12" r:id="rId7" tooltip="https://github.com/100LC/100LC/blob/master/Reports/graphemes/g2p_exploration.md" xr:uid="{113C8544-0297-4626-9F1D-A431252232C0}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{505BFB65-0912-4192-81F6-E84AC39C96F5}"/>
-    <hyperlink ref="C14" r:id="rId9" tooltip="https://www.cambridge.org/core/journals/journal-of-the-international-phonetic-association/article/blowing-in-the-wind-using-north-wind-and-the-sun-texts-to-sample-phoneme-inventories/974F10F1A467914471E84E17496872E2" xr:uid="{F3CF796E-5181-4350-98CD-6ED8CF8BBE57}"/>
-    <hyperlink ref="C15" r:id="rId10" tooltip="https://langsci-press.org/catalog/book/176" xr:uid="{EBCE2C63-41BC-41C3-83D7-729416C54136}"/>
-    <hyperlink ref="C2" r:id="rId11" xr:uid="{2DA38BFF-35FC-4D69-95A5-85805E3C421C}"/>
-    <hyperlink ref="C4" r:id="rId12" xr:uid="{E5737E1F-8179-422E-A306-7A2083ED53EA}"/>
+    <hyperlink ref="C10" r:id="rId2" tooltip="https://www.dropbox.com/sh/0opunb97kju9m2u/AACJXy9CsBo_GOB_14L79UUEa?dl=0" xr:uid="{25A71AD2-6088-4822-843B-06B087BDE44E}"/>
+    <hyperlink ref="C11" r:id="rId3" tooltip="https://asjp.clld.org/languages" xr:uid="{545550D9-62F2-41B0-A3F3-A2F1B9F19628}"/>
+    <hyperlink ref="C6" r:id="rId4" tooltip="https://www.researchsquare.com/article/rs-870835/v1" xr:uid="{3E67989B-C35B-4AB9-8B31-2E60C1AB4C1A}"/>
+    <hyperlink ref="C12" r:id="rId5" tooltip="https://github.com/uiuc-sst/g2ps" xr:uid="{E27F8DED-6BE6-4273-A65B-787F1EA868B8}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{505BFB65-0912-4192-81F6-E84AC39C96F5}"/>
+    <hyperlink ref="C7" r:id="rId7" tooltip="https://www.cambridge.org/core/journals/journal-of-the-international-phonetic-association/article/blowing-in-the-wind-using-north-wind-and-the-sun-texts-to-sample-phoneme-inventories/974F10F1A467914471E84E17496872E2" xr:uid="{F3CF796E-5181-4350-98CD-6ED8CF8BBE57}"/>
+    <hyperlink ref="C8" r:id="rId8" tooltip="https://langsci-press.org/catalog/book/176" xr:uid="{EBCE2C63-41BC-41C3-83D7-729416C54136}"/>
+    <hyperlink ref="C2" r:id="rId9" xr:uid="{2DA38BFF-35FC-4D69-95A5-85805E3C421C}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{E5737E1F-8179-422E-A306-7A2083ED53EA}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{C5A34F68-6A78-43DF-B9BC-0CDD8A08A680}"/>
+    <hyperlink ref="C5" r:id="rId12" xr:uid="{74C9CB1C-6862-43D7-8421-53FDB4B80222}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{5A56F792-BE0F-443E-8287-321E8A28F3F0}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{F0DE660A-9093-4981-B9FA-23DA71FFF057}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/lit/reading_list.xlsx
+++ b/lit/reading_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\lit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0B5303-9BAE-492C-B184-C822DA534ADE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC807B6-A292-4F58-9B5F-2412A670B09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{FAF275AB-D4AD-4F50-96C0-D7F748AA45A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{FAF275AB-D4AD-4F50-96C0-D7F748AA45A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>title</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>G2P for quite many languages</t>
+  </si>
+  <si>
+    <t>http://citeseerx.ist.psu.edu/viewdoc/download;jsessionid=308DCC909EF2E6D930D20779A49CEC98?doi=10.1.1.48.9845&amp;rep=rep1&amp;type=pdf</t>
+  </si>
+  <si>
+    <t>https://aclanthology.org/N15-1056.pdf</t>
+  </si>
+  <si>
+    <t>https://aclanthology.org/2021.sigtyp-1.1.pdf</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11145-017-9741-5</t>
   </si>
 </sst>
 </file>
@@ -279,20 +291,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -304,11 +320,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -318,11 +335,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Gut" xfId="2" builtinId="26"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -337,8 +360,62 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5860FB8F-2A6B-4B62-BE7B-4571FF017731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2863850" y="18745200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -634,22 +711,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A94189-D696-4502-A404-7F70B0E07ED0}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.46484375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.53125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="89.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="89.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -692,7 +769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="185.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="185.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -712,7 +789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -732,27 +809,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -769,7 +846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="232" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -789,7 +866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -809,7 +886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
@@ -820,7 +897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
@@ -831,7 +908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
@@ -842,7 +919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -856,7 +933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
@@ -870,7 +947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -884,7 +961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
@@ -893,6 +970,26 @@
       </c>
       <c r="F15" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C19" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -916,8 +1013,12 @@
     <hyperlink ref="C5" r:id="rId12" xr:uid="{74C9CB1C-6862-43D7-8421-53FDB4B80222}"/>
     <hyperlink ref="C13" r:id="rId13" xr:uid="{5A56F792-BE0F-443E-8287-321E8A28F3F0}"/>
     <hyperlink ref="C15" r:id="rId14" xr:uid="{F0DE660A-9093-4981-B9FA-23DA71FFF057}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{43BF4137-F039-474D-A9C8-989DE72DC26F}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{B8BEFF98-E9E5-45D2-A251-8EFA7264A617}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{E3539764-6ED2-4698-B826-79A5EC2841DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
--- a/lit/reading_list.xlsx
+++ b/lit/reading_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\masterThesis\lit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC807B6-A292-4F58-9B5F-2412A670B09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400A70BC-DD0F-44BB-8FAA-8ABE073A5861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{FAF275AB-D4AD-4F50-96C0-D7F748AA45A3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{FAF275AB-D4AD-4F50-96C0-D7F748AA45A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,11 +171,6 @@
       Daelemans, Walter</t>
   </si>
   <si>
-    <t>The modeling of psycholinguistic phenomena, such as word reading, with machine learning techniques requires the featurization of word stimuli into appropriate orthographic and phonological representations. Critically, the choice of features impacts the performance of machine learning algorithms, and can have important ramifications for the conclusions drawn from a model. As such, featurizing words with a variety of feature sets, without having to resort to using different tools is beneficial in terms of development cost. In this work, we
-present wordkit, a python package which allows users to switch between feature sets and featurizers with a uniform API, allowing for rapid prototyping. To the best of our knowledge, this is the first package which integrates a variety of orthographic and phonological featurizers in a single package. The package is fully compatible with scikit-learn, and hence can be integrated into a variety of machine learning pipelines. Furthermore, the package is modular and extensible, allowing for the future integration of a large variety of
-feature sets and featurizers. The package and documentation can be found at github.com/stephantul/wordkit</t>
-  </si>
-  <si>
     <t>Grapheme-to-Phoneme Models for (Almost) Any Language</t>
   </si>
   <si>
@@ -268,6 +263,10 @@
   </si>
   <si>
     <t>https://link.springer.com/article/10.1007/s11145-017-9741-5</t>
+  </si>
+  <si>
+    <t>The modeling of psycholinguistic phenomena, such as word reading, with machine learning techniques requires the featurization of word stimuli into appropriate orthographic and phonological representations. Critically, the choice of features impacts the performance of machine learning algorithms, and can have important ramifications for the conclusions drawn from a model. As such, featurizing words with a variety of feature sets, without having to resort to using different tools is beneficial in terms of development cost. In this work, we present wordkit, a python package which allows users to switch between feature sets and featurizers with a uniform API, allowing for rapid prototyping. To the best of our knowledge, this is the first package which integrates a variety of orthographic and phonological featurizers in a single package. The package is fully compatible with scikit-learn, and hence can be integrated into a variety of machine learning pipelines. Furthermore, the package is modular and extensible, allowing for the future integration of a large variety of
+feature sets and featurizers. The package and documentation can be found at github.com/stephantul/wordkit</t>
   </si>
 </sst>
 </file>
@@ -713,20 +712,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A94189-D696-4502-A404-7F70B0E07ED0}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="89.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="89.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -769,7 +768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="185.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="213" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -789,7 +788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="203" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -800,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -809,84 +808,84 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="232" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="330" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
@@ -897,99 +896,99 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="5" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
